--- a/Input_Data/Inputs.xlsx
+++ b/Input_Data/Inputs.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A4DEBA-6990-4B21-B880-3622F08B198A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="14475" windowHeight="3585" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Valid Login" sheetId="1" r:id="rId1"/>
@@ -13,6 +12,7 @@
     <sheet name="Verify Product Version" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -57,13 +57,13 @@
     <t>Title of home page</t>
   </si>
   <si>
-    <t>actiTIME 2020 Online</t>
+    <t xml:space="preserve">actiTIME 2020 Online </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -383,14 +383,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -431,7 +431,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -500,11 +500,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
